--- a/config_files/Data.xlsx
+++ b/config_files/Data.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayos\Documents\GitHub\SNB-Biciam\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayos\Documents\GitHub\SNB-Biciam\config_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBC0CC1-9ED7-45DD-9489-39342B11B254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0745AC97-519B-4C69-B92D-CBA872C93FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distancias entre las sedes" sheetId="1" r:id="rId1"/>
+    <sheet name="Localizaciones" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>PRI</t>
   </si>
@@ -121,13 +122,50 @@
   </si>
   <si>
     <t>Guantánamo</t>
+  </si>
+  <si>
+    <t>Occidental</t>
+  </si>
+  <si>
+    <t>Oriental</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>QWE</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>asqwe</t>
+  </si>
+  <si>
+    <t>asdqwe</t>
+  </si>
+  <si>
+    <t>asdqweqw</t>
+  </si>
+  <si>
+    <t>qew</t>
+  </si>
+  <si>
+    <t>QEW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +181,132 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +317,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF262626"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="63"/>
       </patternFill>
     </fill>
   </fills>
@@ -181,11 +353,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,16 +723,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -614,7 +835,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -667,7 +888,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -720,7 +941,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -773,7 +994,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -826,7 +1047,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -879,7 +1100,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -932,7 +1153,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -985,7 +1206,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1038,7 +1259,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1091,7 +1312,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +1365,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1197,7 +1418,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1250,7 +1471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1303,7 +1524,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1356,7 +1577,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1413,4 +1634,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config_files/Data.xlsx
+++ b/config_files/Data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>PRI</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>QEW</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>PRU</t>
   </si>
 </sst>
 </file>
@@ -165,7 +174,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +193,26 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -353,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,6 +436,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/config_files/Data.xlsx
+++ b/config_files/Data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
   <si>
     <t>PRI</t>
   </si>
@@ -167,6 +167,24 @@
   </si>
   <si>
     <t>PRU</t>
+  </si>
+  <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>qweeee</t>
+  </si>
+  <si>
+    <t>qwerwe</t>
+  </si>
+  <si>
+    <t>ADS</t>
+  </si>
+  <si>
+    <t>ZXC</t>
+  </si>
+  <si>
+    <t>JGU</t>
   </si>
 </sst>
 </file>
@@ -174,7 +192,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +211,106 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -382,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,6 +562,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
